--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_253.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_253.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,722 +488,672 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_118</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.07728085867620751</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_73</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_172</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.4017857142857143</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(11.06, 17.28)]</t>
+          <t>[['E:maj', 'B:7', 'E:maj'], ['E:maj/G#', 'A:maj', 'E:maj']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(96.2, 113.76)]</t>
+          <t>[('0:01:06.920000', '0:01:08.180000'), ('0:01:05.200000', '0:01:07.500000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:00.260000', '0:00:07.340000'), ('0:00:52.740000', '0:01:00.860000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_175</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_213</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_167</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_130</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.4166666666666667</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj/F']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(97.94, 108.3)]</t>
+          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(93.26, 102.46)]</t>
+          <t>[('0:00:00.580000', '0:00:10.180000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:00:25.260000', '0:00:45.540000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_138</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_79</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.2342342342342342</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['C:min', 'G:7', 'C:min', 'F:min', 'C:min']]</t>
-        </is>
+          <t>schubert-winterreise_7</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_208</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.06976744186046512</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['A:min/E', 'E:7', 'A:min', 'D:min', 'A:min']]</t>
+          <t>[['E:7', 'A:min', 'A:min'], ['C:maj/G', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(11.12916, 21.12535)]</t>
+          <t>[['A:7', 'D:min', 'D:min'], ['F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(50.54, 65.12)]</t>
+          <t>[('0:00:14.780000', '0:00:19.020000'), ('0:00:32.980000', '0:00:35.260000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
+          <t>[('0:00:14.160000', '0:00:28.960000'), ('0:01:14.960000', '0:01:22.280000')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_149</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.07728085867620751</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_176</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_19</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.06976744186046512</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min']]</t>
+          <t>[['E:7', 'A:min', 'A:min'], ['C:maj/G', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(96.2, 113.76)]</t>
+          <t>[['A:7', 'D:min', 'D:min'], ['F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(10.56, 16.4)]</t>
+          <t>[('0:00:12.780000', '0:00:16.740000'), ('0:00:30.020000', '0:00:32.120000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:09.640000', '0:00:22.680000'), ('0:01:06.220000', '0:01:12.300000')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
           <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_261</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1168269230769231</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['C:maj/E', 'G:maj/D', 'A:min7/C'], ['G:maj', 'C:maj/G', 'G:maj']]</t>
-        </is>
+          <t>isophonics_109</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_287</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.546875</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['C', 'G', 'A:min7'], ['G/3', 'C', 'G']]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(66.02, 68.98), (18.12, 24.54)]</t>
+          <t>[['A/3', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(14.565283, 18.936988), (13.079206, 17.500916)]</t>
+          <t>[('0:01:34.925000', '0:01:40.821000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
-        </is>
-      </c>
+          <t>[('0:01:05.810340', '0:01:11.679931')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_0</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1036789297658863</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['G:min', 'D:7', 'G:min'], ['G:min', 'C:min/G', 'G:min']]</t>
-        </is>
+          <t>isophonics_269</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_180</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3540229885057471</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'E:min/B', 'B:min']]</t>
+          <t>[['A:min', 'E', 'A:min', 'E', 'A:min', 'E', 'A:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(3.1, 5.58), (0.5, 3.9)]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(74.1, 80.04), (25.48, 32.58)]</t>
+          <t>[('0:00:38.841000', '0:00:47.891000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:18.100000', '0:00:45.980000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_152</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_137</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_118</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_208</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.06976744186046512</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
+          <t>[['E:7', 'A:min', 'A:min'], ['C:maj/G', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(13.66, 17.9)]</t>
+          <t>[['A:7', 'D:min', 'D:min'], ['F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(7.7, 18.64)]</t>
+          <t>[('0:00:14.200000', '0:00:18.800000'), ('0:00:31.740000', '0:00:33.880000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
+          <t>[('0:00:14.160000', '0:00:28.960000'), ('0:01:14.960000', '0:01:22.280000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
           <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_3</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_35</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1135714285714286</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['G', 'B', 'E:min']]</t>
-        </is>
+          <t>schubert-winterreise_177</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>isophonics_261</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.1762820512820513</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['C', 'E', 'A:min']]</t>
+          <t>[['D:min/A', 'E:7/A', 'A:min', 'D:min/A']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(71.072653, 74.544036)]</t>
+          <t>[['C:min', 'D:7', 'G:min', 'C:min']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(22.778458, 28.978185)]</t>
+          <t>[('0:00:23.280000', '0:00:33.600000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:68BTFws92cRztMS1oQ7Ewj</t>
+          <t>[('0:00:59.437845', '0:01:06.566371')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>spotify:track:1dxbAIfCASqv6jix2R1Taj</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_154</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_162</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
-        </is>
+          <t>schubert-winterreise_171</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_15</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.2753623188405797</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'G:maj', 'D:7/F#', 'B:7', 'E:min', 'G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>[['F#:min', 'B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(9.24, 28.04)]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(10.2, 29.8)]</t>
+          <t>[('0:00:01.360000', '0:00:06.460000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:00:13.520000', '0:00:25.400000')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_19</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_137</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2697674418604651</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min']]</t>
-        </is>
+          <t>isophonics_58</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>isophonics_175</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.4126984126984127</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
+          <t>[['F', 'C', 'G', 'F', 'C']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(7.14, 30.18)]</t>
+          <t>[['F', 'C', 'G', 'F', 'C']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(41.78, 56.28)]</t>
+          <t>[('0:00:41.895260', '0:00:59.802639')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:01:45.192766', '0:01:52.158752')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_185</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['D#:min', 'A#:7', 'D#:min'], ['D#:min', 'A#:maj', 'D#:min']]</t>
-        </is>
+          <t>isophonics_111</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_126</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.7556818181818181</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'F#:maj', 'B:min']]</t>
+          <t>[['C', 'G:7', 'C', 'G:7', 'C', 'G:7', 'C']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(9.1, 13.86), (0.78, 5.98)]</t>
+          <t>[['D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(84.0, 90.84), (13.74, 22.56)]</t>
+          <t>[('0:01:10.519024', '0:01:22.732721')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:24.520000', '0:00:54.820000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_94</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_176</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.07334525939177103</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['C#:maj/F', 'G#:7', 'C#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_31</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_148</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(41.32, 46.64)]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(30.02, 32.12)]</t>
+          <t>[('0:00:01.820000', '0:00:20.520000'), ('0:00:55.140000', '0:01:15.900000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:00:00.260000', '0:00:24.940000'), ('0:01:05.060000', '0:01:28.500000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_176</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1001011122345804</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_63</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_187</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:min', 'G:min']]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(12.78, 16.74)]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(5.02, 8.8)]</t>
+          <t>[('0:00:17.200000', '0:01:42.900000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:16.380000', '0:01:35.260000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_162</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.2687747035573123</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'G:maj', 'D:7/F#']]</t>
-        </is>
+          <t>schubert-winterreise_192</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_98</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7']]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(10.2, 18.84)]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(20.42, 23.5)]</t>
+          <t>[('0:00:17.320000', '0:01:02.460000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:15.120000', '0:00:57.580000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_3</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1187888198757764</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['G', 'D', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_98</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_38</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(1.014823, 6.126439)]</t>
+          <t>[['D#:min', 'B', 'F:hdim7/G#', 'A#:7', 'D#:min', 'G#:min/B', 'A#:7', 'F#:min/A', 'G#:7', 'C#:min', 'G#:7', 'C#:min', 'G#', 'G#:min', 'D#:min/A#', 'A#', 'D#:min/A#', 'A#', 'D#:min', 'A#', 'D#:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(41.08, 43.26)]</t>
+          <t>[('0:00:15.120000', '0:00:57.580000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:68BTFws92cRztMS1oQ7Ewj</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_69</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_175</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C:maj/G', 'G:7', 'C:maj/G']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(96.66, 106.3)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(97.94, 108.3)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:16.520000', '0:01:04.980000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
